--- a/app/templates/import_housing_templates2.xlsx
+++ b/app/templates/import_housing_templates2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12285"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,6 +88,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,52 +125,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,23 +164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,20 +182,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -217,9 +204,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,187 +234,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +425,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,26 +463,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,30 +502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -525,16 +516,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1114,14 +1114,7 @@
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="M1:O1"/>
   </mergeCells>
-  <dataValidations count="8">
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入有效数字" sqref="O$1:O$1048576">
-      <formula1>1</formula1>
-      <formula2>99</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K3:K1048576">
       <formula1>"居住物业,商业物业,工业物业"</formula1>
     </dataValidation>
@@ -1131,12 +1124,16 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="J2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576">
+      <formula1>"已售,未售"</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入4位纯数字" sqref="N$1:N$1048576">
       <formula1>0</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576">
-      <formula1>"已售,未售"</formula1>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入有效数字" sqref="O$1:O$1048576">
+      <formula1>1</formula1>
+      <formula2>99</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/templates/import_housing_templates2.xlsx
+++ b/app/templates/import_housing_templates2.xlsx
@@ -22,19 +22,19 @@
     <t>分类用逗号 ,隔开 例如 标签1,标签2,标签3</t>
   </si>
   <si>
-    <t>苑/期/区</t>
-  </si>
-  <si>
-    <t>幢*</t>
-  </si>
-  <si>
-    <t>单元*</t>
-  </si>
-  <si>
-    <t>室号*</t>
-  </si>
-  <si>
-    <t>收费面积*</t>
+    <t>所属区域*</t>
+  </si>
+  <si>
+    <t>所属楼栋*</t>
+  </si>
+  <si>
+    <t>所属单元*</t>
+  </si>
+  <si>
+    <t>房号*</t>
+  </si>
+  <si>
+    <t>房屋面积*</t>
   </si>
   <si>
     <t>房屋朝向</t>
@@ -58,7 +58,7 @@
     <t>房屋户型</t>
   </si>
   <si>
-    <t>标签分类</t>
+    <t>房屋标签</t>
   </si>
 </sst>
 </file>
@@ -88,27 +88,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,9 +104,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,16 +134,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,9 +163,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,7 +195,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,36 +211,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,187 +234,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,21 +425,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,11 +448,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,21 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -516,25 +525,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
